--- a/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>68891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55564</v>
+        <v>56494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83022</v>
+        <v>82739</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3597554876782195</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2901603181229824</v>
+        <v>0.2950175670199463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4335499862513663</v>
+        <v>0.4320750985498617</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>82551</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69365</v>
+        <v>68972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96524</v>
+        <v>97572</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4102505260939585</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3447212258371057</v>
+        <v>0.3427653633693258</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4796881012189657</v>
+        <v>0.4848989621266409</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -786,19 +786,19 @@
         <v>151442</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133408</v>
+        <v>132396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170736</v>
+        <v>173163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3856284844762524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3397065961342896</v>
+        <v>0.3371300337902714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4347579164985273</v>
+        <v>0.4409371405385414</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>122602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108471</v>
+        <v>108754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135929</v>
+        <v>134999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6402445123217805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5664500137486337</v>
+        <v>0.5679249014501386</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7098396818770175</v>
+        <v>0.7049824329800538</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -836,19 +836,19 @@
         <v>118671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104698</v>
+        <v>103650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131857</v>
+        <v>132250</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5897494739060415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5203118987810341</v>
+        <v>0.5151010378733577</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.655278774162894</v>
+        <v>0.6572346366306736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -857,19 +857,19 @@
         <v>241274</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221980</v>
+        <v>219553</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>259308</v>
+        <v>260320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6143715155237476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5652420835014726</v>
+        <v>0.5590628594614586</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6602934038657104</v>
+        <v>0.6628699662097287</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>137536</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118652</v>
+        <v>118228</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156838</v>
+        <v>157640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3365074283772276</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2903050788158305</v>
+        <v>0.2892672550932148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3837344034173172</v>
+        <v>0.3856949101720798</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -982,19 +982,19 @@
         <v>136299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117563</v>
+        <v>117026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155486</v>
+        <v>154529</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3089275154212134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2664610835886366</v>
+        <v>0.2652432057147623</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3524162739131481</v>
+        <v>0.3502468161502411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>269</v>
@@ -1003,19 +1003,19 @@
         <v>273835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>248044</v>
+        <v>247528</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>300765</v>
+        <v>302277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3221903889083114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.291844639866824</v>
+        <v>0.2912373487843417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3538755263875929</v>
+        <v>0.3556549315708644</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>271180</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>251878</v>
+        <v>251076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290064</v>
+        <v>290488</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6634925716227723</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6162655965826838</v>
+        <v>0.6143050898279202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7096949211841697</v>
+        <v>0.7107327449067853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>302</v>
@@ -1053,19 +1053,19 @@
         <v>304902</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>285715</v>
+        <v>286672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>323638</v>
+        <v>324175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6910724845787866</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6475837260868514</v>
+        <v>0.6497531838497593</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.733538916411363</v>
+        <v>0.7347567942852381</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>552</v>
@@ -1074,19 +1074,19 @@
         <v>576082</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>549152</v>
+        <v>547640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>601873</v>
+        <v>602389</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6778096110916886</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6461244736124069</v>
+        <v>0.6443450684291356</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7081553601331759</v>
+        <v>0.7087626512156581</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>74549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62404</v>
+        <v>61122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90473</v>
+        <v>89030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3151677263267786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2638230060288289</v>
+        <v>0.2584020199497059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3824878447606337</v>
+        <v>0.3763909377788164</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -1199,19 +1199,19 @@
         <v>85862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70932</v>
+        <v>70873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101105</v>
+        <v>101679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.297301416073692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2456038888418026</v>
+        <v>0.2453993080925634</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3500795100294251</v>
+        <v>0.3520676739161529</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -1220,19 +1220,19 @@
         <v>160411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140400</v>
+        <v>139893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181995</v>
+        <v>180539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3053457654628418</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2672532305088728</v>
+        <v>0.2662882511191473</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3464308534204104</v>
+        <v>0.3436590473768236</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>161988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>146064</v>
+        <v>147507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174133</v>
+        <v>175415</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6848322736732214</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6175121552393664</v>
+        <v>0.6236090622211836</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7361769939711711</v>
+        <v>0.7415979800502941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>201</v>
@@ -1270,19 +1270,19 @@
         <v>202944</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187701</v>
+        <v>187127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>217874</v>
+        <v>217933</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.702698583926308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6499204899705753</v>
+        <v>0.647932326083847</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7543961111581978</v>
+        <v>0.7546006919074366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>359</v>
@@ -1291,19 +1291,19 @@
         <v>364932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>343348</v>
+        <v>344804</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>384943</v>
+        <v>385450</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6946542345371582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6535691465795898</v>
+        <v>0.6563409526231764</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7327467694911273</v>
+        <v>0.7337117488808527</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>84011</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69955</v>
+        <v>69301</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100022</v>
+        <v>100003</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3140252344544927</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2614833809704714</v>
+        <v>0.2590402443357428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3738709953233191</v>
+        <v>0.3738013027530619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -1416,19 +1416,19 @@
         <v>95408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81016</v>
+        <v>81421</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111906</v>
+        <v>112454</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3185209756734952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2704721241543538</v>
+        <v>0.271825778011921</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3736007677695962</v>
+        <v>0.375431471239637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -1437,19 +1437,19 @@
         <v>179419</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158854</v>
+        <v>159079</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202748</v>
+        <v>200307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3163999664366983</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.28013418225055</v>
+        <v>0.2805306217477183</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3575398362200719</v>
+        <v>0.3532341086966916</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>183520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167509</v>
+        <v>167528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197576</v>
+        <v>198230</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6859747655455073</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6261290046766809</v>
+        <v>0.626198697246938</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7385166190295285</v>
+        <v>0.740959755664257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>209</v>
@@ -1487,19 +1487,19 @@
         <v>204126</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187628</v>
+        <v>187080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218518</v>
+        <v>218113</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6814790243265048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6263992322304039</v>
+        <v>0.6245685287603631</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7295278758456462</v>
+        <v>0.728174221988079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>394</v>
@@ -1508,19 +1508,19 @@
         <v>387646</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>364317</v>
+        <v>366758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>408211</v>
+        <v>407986</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6836000335633017</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6424601637799282</v>
+        <v>0.6467658913033084</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.71986581774945</v>
+        <v>0.7194693782522817</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>48816</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37555</v>
+        <v>37884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61511</v>
+        <v>61023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2866870097675355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2205526277570866</v>
+        <v>0.2224837350680105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3612415703840638</v>
+        <v>0.3583715281784309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1633,19 +1633,19 @@
         <v>48553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37569</v>
+        <v>36969</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63719</v>
+        <v>61885</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2791919756308986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2160282112223409</v>
+        <v>0.2125820733443876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3664012605404358</v>
+        <v>0.3558543695241707</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -1654,19 +1654,19 @@
         <v>97370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81517</v>
+        <v>81989</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114896</v>
+        <v>114034</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2828999923698052</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2368410836553029</v>
+        <v>0.2382122272074333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3338224061575823</v>
+        <v>0.3313179512573297</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>121462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108767</v>
+        <v>109255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132723</v>
+        <v>132394</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7133129902324644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6387584296159361</v>
+        <v>0.6416284718215691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7794473722429132</v>
+        <v>0.7775162649319896</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>120</v>
@@ -1704,19 +1704,19 @@
         <v>125353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110187</v>
+        <v>112021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136337</v>
+        <v>136937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7208080243691013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6335987394595641</v>
+        <v>0.6441456304758294</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7839717887776589</v>
+        <v>0.7874179266556124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>242</v>
@@ -1725,19 +1725,19 @@
         <v>246814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229288</v>
+        <v>230150</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>262667</v>
+        <v>262195</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7171000076301948</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6661775938424175</v>
+        <v>0.66868204874267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7631589163446971</v>
+        <v>0.7617877727925665</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>54865</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42687</v>
+        <v>42840</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67102</v>
+        <v>67821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2898769131336578</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2255370952333822</v>
+        <v>0.226343226562212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3545299083929531</v>
+        <v>0.3583278250602074</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1850,19 +1850,19 @@
         <v>52931</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42207</v>
+        <v>41507</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66228</v>
+        <v>66972</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2588446545388777</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2064028101883612</v>
+        <v>0.2029805501866803</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3238724783973974</v>
+        <v>0.3275129044880045</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1871,19 +1871,19 @@
         <v>107796</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90572</v>
+        <v>90729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127624</v>
+        <v>126368</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2737611159037285</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.230018688644274</v>
+        <v>0.2304179035479528</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3241187042284851</v>
+        <v>0.3209292847665146</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>134405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>122168</v>
+        <v>121449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146583</v>
+        <v>146430</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7101230868663422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6454700916070469</v>
+        <v>0.6416721749397922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7744629047666178</v>
+        <v>0.7736567734377878</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -1921,19 +1921,19 @@
         <v>151557</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>138260</v>
+        <v>137516</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162281</v>
+        <v>162981</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7411553454611223</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.676127521602603</v>
+        <v>0.6724870955119956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7935971898116388</v>
+        <v>0.7970194498133197</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>278</v>
@@ -1942,19 +1942,19 @@
         <v>285962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>266134</v>
+        <v>267390</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303186</v>
+        <v>303029</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7262388840962715</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6758812957715149</v>
+        <v>0.6790707152334852</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7699813113557259</v>
+        <v>0.7695820964520468</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>154804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132806</v>
+        <v>135022</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>174832</v>
+        <v>174514</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3333960041142435</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2860198145429987</v>
+        <v>0.2907925118937393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.376529631808007</v>
+        <v>0.3758448368741716</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>162</v>
@@ -2067,19 +2067,19 @@
         <v>168321</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147075</v>
+        <v>145892</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>191716</v>
+        <v>192748</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3120712342438899</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2726803827759868</v>
+        <v>0.2704864867813591</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3554462742747051</v>
+        <v>0.3573584643397164</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>309</v>
@@ -2088,19 +2088,19 @@
         <v>323125</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>294595</v>
+        <v>293218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>352536</v>
+        <v>350359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3219364256803824</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2935115614479616</v>
+        <v>0.2921397610944269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3512391396603047</v>
+        <v>0.3490701603143367</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>309521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>289493</v>
+        <v>289811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>331519</v>
+        <v>329303</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6666039958857565</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6234703681919932</v>
+        <v>0.6241551631258284</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7139801854570015</v>
+        <v>0.7092074881062607</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>362</v>
@@ -2138,19 +2138,19 @@
         <v>371047</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>347652</v>
+        <v>346620</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>392293</v>
+        <v>393476</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6879287657561102</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6445537257252948</v>
+        <v>0.6426415356602835</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7273196172240132</v>
+        <v>0.729513513218641</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>669</v>
@@ -2159,19 +2159,19 @@
         <v>680567</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>651156</v>
+        <v>653333</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>709097</v>
+        <v>710474</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6780635743196175</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6487608603396953</v>
+        <v>0.6509298396856633</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7064884385520385</v>
+        <v>0.7078602389055731</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>161468</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>141517</v>
+        <v>140308</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>186007</v>
+        <v>183443</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3072343802025797</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2692723376481372</v>
+        <v>0.2669731258894756</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3539276373591567</v>
+        <v>0.3490476257750188</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>199</v>
@@ -2284,19 +2284,19 @@
         <v>208878</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185725</v>
+        <v>184924</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232035</v>
+        <v>233475</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3525895059693517</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3135068385764188</v>
+        <v>0.3121551261059203</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.391678394909405</v>
+        <v>0.3941097210448554</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>360</v>
@@ -2305,19 +2305,19 @@
         <v>370346</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>341951</v>
+        <v>337591</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>402336</v>
+        <v>403946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3312681841058492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3058695977259752</v>
+        <v>0.3019696178824902</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3598832415411752</v>
+        <v>0.3613230960039059</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>364084</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>339545</v>
+        <v>342109</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>384035</v>
+        <v>385244</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6927656197974202</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6460723626408432</v>
+        <v>0.6509523742249812</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7307276623518627</v>
+        <v>0.7330268741105245</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>366</v>
@@ -2355,19 +2355,19 @@
         <v>383534</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>360377</v>
+        <v>358937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>406687</v>
+        <v>407488</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6474104940306483</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6083216050905951</v>
+        <v>0.6058902789551442</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.686493161423581</v>
+        <v>0.6878448738940793</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>727</v>
@@ -2376,19 +2376,19 @@
         <v>747617</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>715627</v>
+        <v>714017</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>776012</v>
+        <v>780372</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6687318158941508</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6401167584588249</v>
+        <v>0.6386769039960941</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6941304022740249</v>
+        <v>0.6980303821175099</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>784940</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3199003733839782</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>856</v>
@@ -2501,19 +2501,19 @@
         <v>878804</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3206218060028286</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1624</v>
@@ -2522,19 +2522,19 @@
         <v>1663744</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3202810353942074</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1668761</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1619763</v>
+        <v>1621788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1713537</v>
+        <v>1713615</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6800996266160219</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6601303707891288</v>
+        <v>0.6609558315464227</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6983480894815338</v>
+        <v>0.6983797861090353</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1823</v>
@@ -2572,19 +2572,19 @@
         <v>1862133</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1810132</v>
+        <v>1809890</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1909457</v>
+        <v>1909394</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6793781939971715</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6604063860119335</v>
+        <v>0.6603180268850276</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6966439397773204</v>
+        <v>0.6966210515621647</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3461</v>
@@ -2593,19 +2593,19 @@
         <v>3530894</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3460212</v>
+        <v>3464046</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3602615</v>
+        <v>3597110</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6797189646057926</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6661122512843182</v>
+        <v>0.6668503608696886</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.693525746927807</v>
+        <v>0.6924660446204505</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>46739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35290</v>
+        <v>35624</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61260</v>
+        <v>59277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1865373754263627</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1408461879271276</v>
+        <v>0.1421782044397587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.244493809826279</v>
+        <v>0.2365796972504593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -2962,19 +2962,19 @@
         <v>65281</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50624</v>
+        <v>52620</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81127</v>
+        <v>81105</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2619223725110646</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2031140872669487</v>
+        <v>0.211121851063648</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3254994711032763</v>
+        <v>0.3254120832755221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -2983,19 +2983,19 @@
         <v>112020</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93558</v>
+        <v>91144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132823</v>
+        <v>132231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2241302359798612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1871910486678511</v>
+        <v>0.1823601848507902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2657526087414082</v>
+        <v>0.2645684831197256</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>203821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189300</v>
+        <v>191283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>215270</v>
+        <v>214936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8134626245736373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.755506190173721</v>
+        <v>0.7634203027495408</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8591538120728723</v>
+        <v>0.8578217955602413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -3033,19 +3033,19 @@
         <v>183958</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168112</v>
+        <v>168134</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>198615</v>
+        <v>196619</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7380776274889354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6745005288967237</v>
+        <v>0.6745879167244768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7968859127330512</v>
+        <v>0.7888781489363519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -3054,19 +3054,19 @@
         <v>387780</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>366977</v>
+        <v>367569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>406242</v>
+        <v>408656</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7758697640201389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.734247391258592</v>
+        <v>0.7354315168802744</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8128089513321491</v>
+        <v>0.81763981514921</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>123516</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>106201</v>
+        <v>105287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144389</v>
+        <v>144430</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3039798144395167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2613675202483224</v>
+        <v>0.2591165314154358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.355350139610575</v>
+        <v>0.355449861081027</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -3179,19 +3179,19 @@
         <v>135308</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115122</v>
+        <v>115792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154549</v>
+        <v>154776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3097505089534773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2635404988300848</v>
+        <v>0.2650751952795496</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3537983751622191</v>
+        <v>0.3543190735752259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>244</v>
@@ -3200,19 +3200,19 @@
         <v>258824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>231131</v>
+        <v>233828</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>288492</v>
+        <v>287460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3069695280474665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2741253566700836</v>
+        <v>0.2773246457877464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3421566211715124</v>
+        <v>0.340932357081544</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>282814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>261941</v>
+        <v>261900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>300129</v>
+        <v>301043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6960201855604833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6446498603894252</v>
+        <v>0.6445501389189731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7386324797516779</v>
+        <v>0.7408834685845643</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>274</v>
@@ -3250,19 +3250,19 @@
         <v>301520</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>282279</v>
+        <v>282052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321706</v>
+        <v>321036</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6902494910465227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6462016248377809</v>
+        <v>0.6456809264247741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7364595011699152</v>
+        <v>0.7349248047204503</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>539</v>
@@ -3271,19 +3271,19 @@
         <v>584333</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>554665</v>
+        <v>555697</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>612026</v>
+        <v>609329</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6930304719525335</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6578433788284876</v>
+        <v>0.6590676429184559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7258746433299167</v>
+        <v>0.7226753542122536</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>96945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81620</v>
+        <v>82327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112952</v>
+        <v>115069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3301228745834391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2779370089251206</v>
+        <v>0.2803427132333003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.384629922649549</v>
+        <v>0.3918379125588614</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -3396,19 +3396,19 @@
         <v>87710</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71998</v>
+        <v>71578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106557</v>
+        <v>105841</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2667969498253496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.219003182599059</v>
+        <v>0.2177272809166552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3241261901020657</v>
+        <v>0.3219474655719216</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>177</v>
@@ -3417,19 +3417,19 @@
         <v>184655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>162094</v>
+        <v>162573</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>207880</v>
+        <v>210456</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2966749475918333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2604270094550163</v>
+        <v>0.2611972279868894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3339891859586998</v>
+        <v>0.3381267516811609</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>196719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180712</v>
+        <v>178595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>212044</v>
+        <v>211337</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6698771254165609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.615370077350451</v>
+        <v>0.6081620874411388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7220629910748794</v>
+        <v>0.7196572867666998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -3467,19 +3467,19 @@
         <v>241042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222195</v>
+        <v>222911</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>256754</v>
+        <v>257174</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7332030501746504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6758738098979344</v>
+        <v>0.6780525344280784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7809968174009412</v>
+        <v>0.7822727190833447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>417</v>
@@ -3488,19 +3488,19 @@
         <v>437761</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>414536</v>
+        <v>411960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>460322</v>
+        <v>459843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7033250524081667</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6660108140413004</v>
+        <v>0.6618732483188391</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7395729905449837</v>
+        <v>0.7388027720131106</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>105783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89212</v>
+        <v>88445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122815</v>
+        <v>124151</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3378801963409149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2849514991196479</v>
+        <v>0.2825010940533583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3922850078532388</v>
+        <v>0.3965525952889297</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -3613,19 +3613,19 @@
         <v>85741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70228</v>
+        <v>71034</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102163</v>
+        <v>102411</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2501079007951774</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2048570496856852</v>
+        <v>0.2072088241751132</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2980118319513521</v>
+        <v>0.298735215728904</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -3634,19 +3634,19 @@
         <v>191523</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168655</v>
+        <v>168707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>215740</v>
+        <v>214224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2920042809208296</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2571386037086434</v>
+        <v>0.2572176141678423</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3289261591353733</v>
+        <v>0.3266155865504207</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>207294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190262</v>
+        <v>188926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>223865</v>
+        <v>224632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6621198036590851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6077149921467615</v>
+        <v>0.6034474047110705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7150485008803522</v>
+        <v>0.7174989059466418</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>242</v>
@@ -3684,19 +3684,19 @@
         <v>257074</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>240652</v>
+        <v>240404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>272587</v>
+        <v>271781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7498920992048226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7019881680486479</v>
+        <v>0.7012647842710961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7951429503143148</v>
+        <v>0.7927911758248868</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>433</v>
@@ -3705,19 +3705,19 @@
         <v>464368</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>440151</v>
+        <v>441667</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>487236</v>
+        <v>487184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7079957190791704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6710738408646273</v>
+        <v>0.6733844134495792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7428613962913567</v>
+        <v>0.7427823858321573</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>60347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47196</v>
+        <v>46721</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74434</v>
+        <v>74313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3142125160260129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2457399686004624</v>
+        <v>0.2432624911690074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3875611622260131</v>
+        <v>0.386929593107385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -3830,19 +3830,19 @@
         <v>58207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46222</v>
+        <v>46443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71946</v>
+        <v>72075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.299140800693198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.237544321259005</v>
+        <v>0.2386799647438653</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3697485924151969</v>
+        <v>0.3704086080770496</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -3851,19 +3851,19 @@
         <v>118554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100039</v>
+        <v>101457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137490</v>
+        <v>137745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3066274800689622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2587381140414846</v>
+        <v>0.2624062746163174</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3556025083179889</v>
+        <v>0.3562616561727402</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>131711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117624</v>
+        <v>117745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144862</v>
+        <v>145337</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6857874839739871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6124388377739871</v>
+        <v>0.613070406892615</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7542600313995376</v>
+        <v>0.7567375088309926</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>132</v>
@@ -3901,19 +3901,19 @@
         <v>136375</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122636</v>
+        <v>122507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>148360</v>
+        <v>148139</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.700859199306802</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.630251407584803</v>
+        <v>0.6295913919229503</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7624556787409946</v>
+        <v>0.7613200352561347</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>253</v>
@@ -3922,19 +3922,19 @@
         <v>268086</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>249150</v>
+        <v>248895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>286601</v>
+        <v>285183</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6933725199310378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6443974916820111</v>
+        <v>0.6437383438272597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7412618859585155</v>
+        <v>0.7375937253836825</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>65940</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52507</v>
+        <v>52820</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81826</v>
+        <v>82590</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2637872644857253</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2100491208582695</v>
+        <v>0.2113008600828538</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3273385209072689</v>
+        <v>0.3303953929923776</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -4047,19 +4047,19 @@
         <v>70339</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56620</v>
+        <v>56836</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84221</v>
+        <v>85292</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2656003519183852</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2137977945745733</v>
+        <v>0.2146118490906611</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3180172577103919</v>
+        <v>0.3220619089780208</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -4068,19 +4068,19 @@
         <v>136279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116783</v>
+        <v>115793</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156834</v>
+        <v>157575</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2647199700822644</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.226850404056</v>
+        <v>0.2249271733748264</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3046478289172752</v>
+        <v>0.3060870095525247</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>184033</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168147</v>
+        <v>167383</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197466</v>
+        <v>197153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7362127355142747</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6726614790927311</v>
+        <v>0.6696046070076225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7899508791417311</v>
+        <v>0.7886991399171464</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>185</v>
@@ -4118,19 +4118,19 @@
         <v>194491</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180609</v>
+        <v>179538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>208210</v>
+        <v>207994</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7343996480816147</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.681982742289608</v>
+        <v>0.6779380910219778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7862022054254264</v>
+        <v>0.7853881509093383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>360</v>
@@ -4139,19 +4139,19 @@
         <v>378524</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>357969</v>
+        <v>357228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>398020</v>
+        <v>399010</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7352800299177356</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6953521710827248</v>
+        <v>0.6939129904474752</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.773149595944</v>
+        <v>0.7750728266251736</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>172383</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>150696</v>
+        <v>150083</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198276</v>
+        <v>194280</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3012086791370081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2633142803314246</v>
+        <v>0.2622434070596001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3464527662166098</v>
+        <v>0.339469660859918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -4264,19 +4264,19 @@
         <v>173027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>150493</v>
+        <v>149417</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>196633</v>
+        <v>196844</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2767786569778829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2407335020012112</v>
+        <v>0.2390127394461549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.314540586985676</v>
+        <v>0.3148771072592018</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>318</v>
@@ -4285,19 +4285,19 @@
         <v>345409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>313889</v>
+        <v>312560</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>384156</v>
+        <v>377116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2884546485187801</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2621315107736876</v>
+        <v>0.2610219739570939</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3208119330108045</v>
+        <v>0.3149330277481137</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>399921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>374028</v>
+        <v>378024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>421608</v>
+        <v>422221</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.698791320862992</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6535472337833902</v>
+        <v>0.6605303391400819</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7366857196685755</v>
+        <v>0.7377565929403997</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>414</v>
@@ -4335,19 +4335,19 @@
         <v>452117</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>428511</v>
+        <v>428300</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>474651</v>
+        <v>475727</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7232213430221172</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6854594130143241</v>
+        <v>0.6851228927407982</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.759266497998789</v>
+        <v>0.7609872605538451</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>788</v>
@@ -4356,19 +4356,19 @@
         <v>852039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>813292</v>
+        <v>820332</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>883559</v>
+        <v>884888</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7115453514812199</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6791880669891955</v>
+        <v>0.6850669722518864</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7378684892263124</v>
+        <v>0.7389780260429062</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>202914</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>181024</v>
+        <v>178161</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>227901</v>
+        <v>228212</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3201022840909513</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2855690377724699</v>
+        <v>0.2810524685831586</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3595186321901043</v>
+        <v>0.3600094637718312</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>220</v>
@@ -4481,19 +4481,19 @@
         <v>235105</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>211913</v>
+        <v>208979</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>263484</v>
+        <v>262074</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3347668707542562</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3017433237960622</v>
+        <v>0.297565950213336</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3751769065176709</v>
+        <v>0.3731678917575351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>414</v>
@@ -4502,19 +4502,19 @@
         <v>438019</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>402574</v>
+        <v>403633</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>469056</v>
+        <v>473397</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3278098584762324</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3012828715733084</v>
+        <v>0.3020753797539267</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3510372869554478</v>
+        <v>0.3542862438923783</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>430991</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>406004</v>
+        <v>405693</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>452881</v>
+        <v>455744</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6798977159090487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6404813678098957</v>
+        <v>0.6399905362281689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7144309622275301</v>
+        <v>0.7189475314168415</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>426</v>
@@ -4552,19 +4552,19 @@
         <v>467189</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>438810</v>
+        <v>440220</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>490381</v>
+        <v>493315</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6652331292457437</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6248230934823291</v>
+        <v>0.6268321082424649</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6982566762039377</v>
+        <v>0.702434049786664</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>816</v>
@@ -4573,19 +4573,19 @@
         <v>898180</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>867143</v>
+        <v>862802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>933625</v>
+        <v>932566</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6721901415237677</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6489627130445521</v>
+        <v>0.6457137561076214</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6987171284266915</v>
+        <v>0.6979246202460733</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>874567</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>829226</v>
+        <v>825033</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>925363</v>
+        <v>923011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3003452655274862</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2847743930207224</v>
+        <v>0.2833342031761531</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3177897978734626</v>
+        <v>0.3169821146877057</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>855</v>
@@ -4698,19 +4698,19 @@
         <v>910717</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>860952</v>
+        <v>862702</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>964245</v>
+        <v>962889</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2896237918187499</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2737977433923122</v>
+        <v>0.2743542909240912</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3066466611192507</v>
+        <v>0.3062154240053243</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1683</v>
@@ -4719,19 +4719,19 @@
         <v>1785284</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1717750</v>
+        <v>1709948</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1858370</v>
+        <v>1857721</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2947786338028714</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2836277408435715</v>
+        <v>0.2823394193310304</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3068461993291364</v>
+        <v>0.3067390431260946</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2037304</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1986508</v>
+        <v>1988860</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2082645</v>
+        <v>2086838</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6996547344725138</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6822102021265374</v>
+        <v>0.6830178853122945</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7152256069792778</v>
+        <v>0.7166657968238469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2059</v>
@@ -4769,19 +4769,19 @@
         <v>2233766</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2180238</v>
+        <v>2181594</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2283531</v>
+        <v>2281781</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7103762081812501</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6933533388807487</v>
+        <v>0.6937845759946754</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7262022566076876</v>
+        <v>0.7256457090759086</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3964</v>
@@ -4790,19 +4790,19 @@
         <v>4271071</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4197985</v>
+        <v>4198634</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4338605</v>
+        <v>4346407</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7052213661971286</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6931538006708637</v>
+        <v>0.6932609568739055</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7163722591564285</v>
+        <v>0.7176605806689696</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>67676</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52162</v>
+        <v>54254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82270</v>
+        <v>82869</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2759820067585786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2127179503737718</v>
+        <v>0.2212496182129213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3354961731546072</v>
+        <v>0.3379393467617088</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -5159,19 +5159,19 @@
         <v>54729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42277</v>
+        <v>43116</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68394</v>
+        <v>68801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2221750223393214</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1716260514952063</v>
+        <v>0.1750297043526517</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2776473508156773</v>
+        <v>0.2792981600655753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -5180,19 +5180,19 @@
         <v>122405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103012</v>
+        <v>104312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141218</v>
+        <v>144824</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2490174251351736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.209564875992808</v>
+        <v>0.2122093209424266</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2872913761300169</v>
+        <v>0.2946259576179009</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>177542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162948</v>
+        <v>162349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193056</v>
+        <v>190964</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7240179932414214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6645038268453928</v>
+        <v>0.6620606532382913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7872820496262279</v>
+        <v>0.7787503817870788</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -5230,19 +5230,19 @@
         <v>191605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177940</v>
+        <v>177533</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204057</v>
+        <v>203218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7778249776606786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7223526491843228</v>
+        <v>0.7207018399344248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8283739485047943</v>
+        <v>0.8249702956473485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -5251,19 +5251,19 @@
         <v>369146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>350333</v>
+        <v>346727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>388539</v>
+        <v>387239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7509825748648264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7127086238699829</v>
+        <v>0.705374042382099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.790435124007192</v>
+        <v>0.7877906790575734</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>119089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100425</v>
+        <v>101125</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138971</v>
+        <v>137310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3279189868543618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2765270095037535</v>
+        <v>0.2784549417073635</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3826650252836611</v>
+        <v>0.3780932576327122</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -5376,19 +5376,19 @@
         <v>104825</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88257</v>
+        <v>87824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121225</v>
+        <v>122777</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2665075164051798</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2243852138094574</v>
+        <v>0.2232850835393575</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3082039665719097</v>
+        <v>0.3121505887153434</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>213</v>
@@ -5397,19 +5397,19 @@
         <v>223913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197766</v>
+        <v>198308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>250689</v>
+        <v>249290</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2959890081162069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2614247564128464</v>
+        <v>0.2621419345783698</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3313828988790608</v>
+        <v>0.3295337720234122</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>244076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>224194</v>
+        <v>225855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>262740</v>
+        <v>262040</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6720810131456382</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6173349747163389</v>
+        <v>0.6219067423672876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7234729904962465</v>
+        <v>0.7215450582926363</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -5447,19 +5447,19 @@
         <v>288502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>272102</v>
+        <v>270550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305070</v>
+        <v>305503</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7334924835948202</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6917960334280903</v>
+        <v>0.6878494112846568</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7756147861905425</v>
+        <v>0.7767149164606426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>501</v>
@@ -5468,19 +5468,19 @@
         <v>532579</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>505803</v>
+        <v>507202</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>558726</v>
+        <v>558184</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.704010991883793</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6686171011209393</v>
+        <v>0.6704662279765878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7385752435871537</v>
+        <v>0.7378580654216302</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>80613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67259</v>
+        <v>66785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96007</v>
+        <v>94359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2774914378731488</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2315232051444137</v>
+        <v>0.2298923798604648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3304806955635397</v>
+        <v>0.3248083709957639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -5593,19 +5593,19 @@
         <v>73920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59870</v>
+        <v>60124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88829</v>
+        <v>89288</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.24018467026459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1945330142986986</v>
+        <v>0.1953564416688825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.288626111720904</v>
+        <v>0.2901178756985405</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -5614,19 +5614,19 @@
         <v>154533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135388</v>
+        <v>133557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176335</v>
+        <v>175496</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2582999884711824</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2262985515117656</v>
+        <v>0.2232381598719258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2947415574655439</v>
+        <v>0.2933388030463149</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>209894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>194500</v>
+        <v>196148</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>223248</v>
+        <v>223722</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7225085621268512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6695193044364603</v>
+        <v>0.675191629004236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7684767948555864</v>
+        <v>0.7701076201395352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -5664,19 +5664,19 @@
         <v>233844</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>218935</v>
+        <v>218476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247894</v>
+        <v>247640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.75981532973541</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7113738882790961</v>
+        <v>0.7098821243014595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8054669857013015</v>
+        <v>0.8046435583311174</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>446</v>
@@ -5685,19 +5685,19 @@
         <v>443737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>421935</v>
+        <v>422774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>462882</v>
+        <v>464713</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7417000115288176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7052584425344557</v>
+        <v>0.7066611969536851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7737014484882341</v>
+        <v>0.7767618401280741</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>59492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47806</v>
+        <v>45796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75237</v>
+        <v>74042</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1802521304722488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1448452435060133</v>
+        <v>0.1387554397316116</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2279574452670071</v>
+        <v>0.2243389188235516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -5810,19 +5810,19 @@
         <v>84286</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69477</v>
+        <v>68646</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102470</v>
+        <v>101213</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2416042850384701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1991550958335243</v>
+        <v>0.1967705134761431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2937286026040734</v>
+        <v>0.2901249161732397</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -5831,19 +5831,19 @@
         <v>143778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123837</v>
+        <v>122199</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167802</v>
+        <v>164332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2117782905477976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1824060509961611</v>
+        <v>0.1799930296966883</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2471651085800609</v>
+        <v>0.2420537659512564</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>270555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>254810</v>
+        <v>256005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>282241</v>
+        <v>284251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8197478695277512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7720425547329932</v>
+        <v>0.7756610811764484</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8551547564939868</v>
+        <v>0.8612445602683884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -5881,19 +5881,19 @@
         <v>264575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246391</v>
+        <v>247648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>279384</v>
+        <v>280215</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7583957149615299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7062713973959267</v>
+        <v>0.7098750838267601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8008449041664757</v>
+        <v>0.8032294865238568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>501</v>
@@ -5902,19 +5902,19 @@
         <v>535130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>511106</v>
+        <v>514576</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>555071</v>
+        <v>556709</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7882217094522024</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.752834891419939</v>
+        <v>0.7579462340487431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8175939490038389</v>
+        <v>0.8200069703033117</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>28737</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20781</v>
+        <v>20039</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40158</v>
+        <v>39175</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.241038629500145</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1743011549754902</v>
+        <v>0.1680772589111822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3368308731506564</v>
+        <v>0.3285886054882649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -6027,19 +6027,19 @@
         <v>35021</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26007</v>
+        <v>26147</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45866</v>
+        <v>45463</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2406944864123168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1787419529159914</v>
+        <v>0.1797044484923151</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3152307747544693</v>
+        <v>0.3124619840947536</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -6048,19 +6048,19 @@
         <v>63758</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50137</v>
+        <v>49766</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77707</v>
+        <v>78153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2408494772323701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1893939351983354</v>
+        <v>0.187994106654338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2935402472839732</v>
+        <v>0.2952258619440765</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>90485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79064</v>
+        <v>80047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98441</v>
+        <v>99183</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.758961370499855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6631691268493437</v>
+        <v>0.6714113945117349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8256988450245099</v>
+        <v>0.8319227410888177</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -6098,19 +6098,19 @@
         <v>110479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99634</v>
+        <v>100037</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>119493</v>
+        <v>119353</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7593055135876833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6847692252455307</v>
+        <v>0.6875380159052462</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8212580470840086</v>
+        <v>0.8202955515076847</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -6119,19 +6119,19 @@
         <v>200964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>187015</v>
+        <v>186569</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>214585</v>
+        <v>214956</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7591505227676298</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7064597527160268</v>
+        <v>0.7047741380559235</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8106060648016646</v>
+        <v>0.8120058933456624</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>52813</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40117</v>
+        <v>41026</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67111</v>
+        <v>66298</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2260689095152087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1717207929179256</v>
+        <v>0.1756132066628816</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2872721246369438</v>
+        <v>0.2837918076907062</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -6244,19 +6244,19 @@
         <v>52896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41117</v>
+        <v>40724</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66176</v>
+        <v>65901</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2140338880424463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1663738728705581</v>
+        <v>0.1647836460058207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2677716476849124</v>
+        <v>0.2666571975436738</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -6265,19 +6265,19 @@
         <v>105709</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90041</v>
+        <v>89126</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>124186</v>
+        <v>124554</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.219882146669675</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1872918896837733</v>
+        <v>0.1853886007969201</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2583156886181794</v>
+        <v>0.2590813442092093</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>180802</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166504</v>
+        <v>167317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193498</v>
+        <v>192589</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7739310904847914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7127278753630562</v>
+        <v>0.7162081923092938</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8282792070820744</v>
+        <v>0.8243867933371184</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>187</v>
@@ -6315,19 +6315,19 @@
         <v>194241</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180961</v>
+        <v>181236</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>206020</v>
+        <v>206413</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7859661119575537</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7322283523150875</v>
+        <v>0.7333428024563262</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8336261271294418</v>
+        <v>0.8352163539941793</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>366</v>
@@ -6336,19 +6336,19 @@
         <v>375044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>356567</v>
+        <v>356199</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>390712</v>
+        <v>391627</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7801178533303249</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7416843113818206</v>
+        <v>0.7409186557907907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8127081103162267</v>
+        <v>0.8146113992030799</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>157661</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>136395</v>
+        <v>135144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>179231</v>
+        <v>178136</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.356451478076741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3083721309811194</v>
+        <v>0.3055429103200826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4052184513149553</v>
+        <v>0.4027437070716544</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -6461,19 +6461,19 @@
         <v>161096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139106</v>
+        <v>138545</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182514</v>
+        <v>181786</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3307569896347365</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2856092759933088</v>
+        <v>0.284457837005467</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.374733703992916</v>
+        <v>0.373238717925487</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>290</v>
@@ -6482,19 +6482,19 @@
         <v>318757</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>287477</v>
+        <v>289672</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>348552</v>
+        <v>351799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3429857051516034</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3093288672849326</v>
+        <v>0.3116909730958707</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3750462416704534</v>
+        <v>0.3785393957354261</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>284646</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>263076</v>
+        <v>264171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>305912</v>
+        <v>307163</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.643548521923259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5947815486850446</v>
+        <v>0.5972562929283456</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6916278690188807</v>
+        <v>0.6944570896799173</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>307</v>
@@ -6532,19 +6532,19 @@
         <v>325955</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>304537</v>
+        <v>305265</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>347945</v>
+        <v>348506</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6692430103652635</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6252662960070841</v>
+        <v>0.626761282074513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7143907240066912</v>
+        <v>0.715542162994533</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>557</v>
@@ -6553,19 +6553,19 @@
         <v>610601</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>580806</v>
+        <v>577559</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>641881</v>
+        <v>639686</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6570142948483966</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6249537583295467</v>
+        <v>0.6214606042645745</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6906711327150675</v>
+        <v>0.6883090269041295</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>168523</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145272</v>
+        <v>145146</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191888</v>
+        <v>190143</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2632139375113354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2268982297768515</v>
+        <v>0.226701100938863</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2997073721896524</v>
+        <v>0.2969814161114999</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>175</v>
@@ -6678,19 +6678,19 @@
         <v>187135</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163321</v>
+        <v>163440</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>211654</v>
+        <v>211006</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2706838625565519</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.236237902764151</v>
+        <v>0.236410609617904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3061506193398161</v>
+        <v>0.3052131730810632</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>336</v>
@@ -6699,19 +6699,19 @@
         <v>355658</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>325067</v>
+        <v>324261</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>389107</v>
+        <v>388187</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2670922005970197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2441187213281168</v>
+        <v>0.2435139501604251</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2922119235090867</v>
+        <v>0.291520648086798</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>471729</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>448364</v>
+        <v>450109</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>494980</v>
+        <v>495106</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7367860624886646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7002926278103476</v>
+        <v>0.7030185838885002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7731017702231485</v>
+        <v>0.773298899061137</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>460</v>
@@ -6749,19 +6749,19 @@
         <v>504206</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>479687</v>
+        <v>480335</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>528020</v>
+        <v>527901</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7293161374434481</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6938493806601842</v>
+        <v>0.6947868269189369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7637620972358492</v>
+        <v>0.7635893903820961</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>915</v>
@@ -6770,19 +6770,19 @@
         <v>975935</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>942486</v>
+        <v>943406</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1006526</v>
+        <v>1007332</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7329077994029803</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7077880764909132</v>
+        <v>0.708479351913202</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7558812786718832</v>
+        <v>0.7564860498395749</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>734604</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>687821</v>
+        <v>689263</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>785836</v>
+        <v>783636</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.275717676702138</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2581588586487161</v>
+        <v>0.2587000698777859</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2949465603126752</v>
+        <v>0.2941207202796064</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>730</v>
@@ -6895,19 +6895,19 @@
         <v>753907</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>706318</v>
+        <v>703141</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>802908</v>
+        <v>799332</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2629315097196918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2463343077326615</v>
+        <v>0.2452263651303141</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.280020733564917</v>
+        <v>0.2787736208645111</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1421</v>
@@ -6916,19 +6916,19 @@
         <v>1488511</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1418530</v>
+        <v>1426677</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1556025</v>
+        <v>1556251</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2690900013484158</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.256438865050747</v>
+        <v>0.2579118168643699</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.281295052198706</v>
+        <v>0.2813359264725799</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1929729</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1878497</v>
+        <v>1880697</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1976512</v>
+        <v>1975070</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.724282323297862</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7050534396873248</v>
+        <v>0.7058792797203935</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7418411413512839</v>
+        <v>0.7412999301222138</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1997</v>
@@ -6966,19 +6966,19 @@
         <v>2113408</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2064407</v>
+        <v>2067983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2160997</v>
+        <v>2164174</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7370684902803082</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.719979266435083</v>
+        <v>0.7212263791354889</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7536656922673384</v>
+        <v>0.7547736348696858</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3836</v>
@@ -6987,19 +6987,19 @@
         <v>4043137</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3975623</v>
+        <v>3975397</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4113118</v>
+        <v>4104971</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7309099986515842</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.718704947801294</v>
+        <v>0.7186640735274201</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.743561134949253</v>
+        <v>0.7420881831356303</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>51533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38267</v>
+        <v>39001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66623</v>
+        <v>66359</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1712527672236166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1271684428227891</v>
+        <v>0.1296072393208932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2214009506546457</v>
+        <v>0.220522424802317</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -7356,19 +7356,19 @@
         <v>75250</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63229</v>
+        <v>63529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88728</v>
+        <v>90277</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2431621426018588</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2043191629999278</v>
+        <v>0.2052875273626423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2867141970994039</v>
+        <v>0.2917198140866129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -7377,19 +7377,19 @@
         <v>126783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109173</v>
+        <v>109023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146947</v>
+        <v>148002</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2077109072784195</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1788598770011848</v>
+        <v>0.1786138716076202</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2407459511655014</v>
+        <v>0.2424743297283828</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>249384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>234294</v>
+        <v>234558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>262650</v>
+        <v>261916</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8287472327763835</v>
+        <v>0.8287472327763834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7785990493453543</v>
+        <v>0.779477575197684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8728315571772109</v>
+        <v>0.8703927606791073</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>411</v>
@@ -7427,19 +7427,19 @@
         <v>234214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220736</v>
+        <v>219187</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246235</v>
+        <v>245935</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7568378573981411</v>
+        <v>0.756837857398141</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7132858029005963</v>
+        <v>0.7082801859133872</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7956808370000723</v>
+        <v>0.7947124726373577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -7448,19 +7448,19 @@
         <v>483598</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>463434</v>
+        <v>462379</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>501208</v>
+        <v>501358</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7922890927215805</v>
+        <v>0.7922890927215807</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7592540488344985</v>
+        <v>0.757525670271617</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.821140122998815</v>
+        <v>0.82138612839238</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>140121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115790</v>
+        <v>111477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>167154</v>
+        <v>167433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2704884604353185</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2235205605221623</v>
+        <v>0.2151953909832623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3226736532638395</v>
+        <v>0.3232131891446807</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -7573,19 +7573,19 @@
         <v>118313</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100668</v>
+        <v>101943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136460</v>
+        <v>137106</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2225542538674577</v>
+        <v>0.2225542538674576</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1893631552255136</v>
+        <v>0.1917618527792878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2566904899675768</v>
+        <v>0.2579057040388771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>236</v>
@@ -7594,19 +7594,19 @@
         <v>258433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>229169</v>
+        <v>231353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291923</v>
+        <v>293100</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2462111979556199</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2183312875744841</v>
+        <v>0.2204117588221017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2781176135257498</v>
+        <v>0.2792384152577161</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>377907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350874</v>
+        <v>350595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>402238</v>
+        <v>406551</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7295115395646813</v>
+        <v>0.7295115395646815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6773263467361605</v>
+        <v>0.6767868108553197</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7764794394778377</v>
+        <v>0.7848046090167379</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>552</v>
@@ -7644,19 +7644,19 @@
         <v>413299</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>395152</v>
+        <v>394506</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>430944</v>
+        <v>429669</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7774457461325424</v>
+        <v>0.7774457461325422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.743309510032423</v>
+        <v>0.742094295961123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8106368447744864</v>
+        <v>0.8082381472207125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>831</v>
@@ -7665,19 +7665,19 @@
         <v>791207</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>757717</v>
+        <v>756540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>820471</v>
+        <v>818287</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.75378880204438</v>
+        <v>0.7537888020443803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7218823864742497</v>
+        <v>0.7207615847422838</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7816687124255158</v>
+        <v>0.7795882411778982</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>54556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42738</v>
+        <v>42985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69807</v>
+        <v>69658</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1817132881199567</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1423513375355089</v>
+        <v>0.1431729122221339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2325120482559319</v>
+        <v>0.2320151461197764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -7790,19 +7790,19 @@
         <v>49416</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39390</v>
+        <v>39243</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60815</v>
+        <v>60467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1446161902548536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1152755582284579</v>
+        <v>0.1148449340434814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1779758805158421</v>
+        <v>0.1769556136081446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -7811,19 +7811,19 @@
         <v>103972</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88646</v>
+        <v>88555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121601</v>
+        <v>120633</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1619663571639261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1380918856998293</v>
+        <v>0.1379494422669283</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1894292044067317</v>
+        <v>0.1879210103059672</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>245675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230424</v>
+        <v>230573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257493</v>
+        <v>257246</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8182867118800432</v>
+        <v>0.8182867118800433</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.767487951744068</v>
+        <v>0.7679848538802235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8576486624644911</v>
+        <v>0.856827087777866</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>441</v>
@@ -7861,19 +7861,19 @@
         <v>292289</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>280890</v>
+        <v>281238</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302315</v>
+        <v>302462</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8553838097451467</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8220241194841593</v>
+        <v>0.8230443863918555</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8847244417715425</v>
+        <v>0.8851550659565187</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>728</v>
@@ -7882,19 +7882,19 @@
         <v>537963</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>520334</v>
+        <v>521302</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>553289</v>
+        <v>553380</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8380336428360738</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8105707955932686</v>
+        <v>0.8120789896940328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8619081143001708</v>
+        <v>0.8620505577330716</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>72056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53039</v>
+        <v>52612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98105</v>
+        <v>95355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1943590803979386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1430624964100236</v>
+        <v>0.141912871937828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2646207022279307</v>
+        <v>0.2572037166359057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -8007,19 +8007,19 @@
         <v>79687</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64425</v>
+        <v>63721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97204</v>
+        <v>99622</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1899064692638127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1535341194540146</v>
+        <v>0.1518561177353763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2316510279087436</v>
+        <v>0.2374151560451758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -8028,19 +8028,19 @@
         <v>151744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124531</v>
+        <v>126957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178470</v>
+        <v>183020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1919951009942301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1575643178526658</v>
+        <v>0.1606341277783895</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2258115742679514</v>
+        <v>0.2315682871636232</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>298682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272633</v>
+        <v>275383</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317699</v>
+        <v>318126</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8056409196020615</v>
+        <v>0.8056409196020613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7353792977720693</v>
+        <v>0.7427962833640942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8569375035899764</v>
+        <v>0.858087128062172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>493</v>
@@ -8078,19 +8078,19 @@
         <v>339926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322409</v>
+        <v>319991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>355188</v>
+        <v>355892</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8100935307361874</v>
+        <v>0.8100935307361873</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7683489720912563</v>
+        <v>0.7625848439548242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8464658805459855</v>
+        <v>0.8481438822646237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>731</v>
@@ -8099,19 +8099,19 @@
         <v>638607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>611881</v>
+        <v>607331</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>665820</v>
+        <v>663394</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8080048990057697</v>
+        <v>0.8080048990057699</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7741884257320486</v>
+        <v>0.7684317128363767</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8424356821473334</v>
+        <v>0.8393658722216106</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>39463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30804</v>
+        <v>30242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49120</v>
+        <v>49997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2084665469184229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1627254823395144</v>
+        <v>0.1597583477854816</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2594811201007707</v>
+        <v>0.2641157342815523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -8224,19 +8224,19 @@
         <v>48156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39861</v>
+        <v>40465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56155</v>
+        <v>56068</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2190900114665124</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1813490305047848</v>
+        <v>0.1840961394195835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2554790874306732</v>
+        <v>0.2550856649440953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -8245,19 +8245,19 @@
         <v>87619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75148</v>
+        <v>75896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100176</v>
+        <v>100043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2141743187060819</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1836914764620209</v>
+        <v>0.1855192171030556</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2448685091261863</v>
+        <v>0.2445428968292333</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>149836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>140179</v>
+        <v>139302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158495</v>
+        <v>159057</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7915334530815771</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7405188798992293</v>
+        <v>0.7358842657184475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8372745176604856</v>
+        <v>0.8402416522145183</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>367</v>
@@ -8295,19 +8295,19 @@
         <v>171646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>163647</v>
+        <v>163734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>179941</v>
+        <v>179337</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7809099885334876</v>
+        <v>0.7809099885334875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7445209125693268</v>
+        <v>0.7449143350559048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8186509694952152</v>
+        <v>0.8159038605804168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>576</v>
@@ -8316,19 +8316,19 @@
         <v>321482</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>308925</v>
+        <v>309058</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>333953</v>
+        <v>333205</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7858256812939182</v>
+        <v>0.7858256812939179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7551314908738136</v>
+        <v>0.755457103170767</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.816308523537979</v>
+        <v>0.8144807828969451</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>58642</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47628</v>
+        <v>47028</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72005</v>
+        <v>71823</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2348164761885043</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.190713173565878</v>
+        <v>0.1883118913777156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2883251199870115</v>
+        <v>0.2875959441473844</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -8441,19 +8441,19 @@
         <v>40516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31176</v>
+        <v>31741</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50256</v>
+        <v>50167</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1610598710521815</v>
+        <v>0.1610598710521816</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1239314002450825</v>
+        <v>0.1261762002804153</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.19977663719384</v>
+        <v>0.1994232021346098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -8462,19 +8462,19 @@
         <v>99158</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84856</v>
+        <v>83214</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116149</v>
+        <v>114308</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1978039315087352</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1692743366840892</v>
+        <v>0.1659976197259602</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2316976199438079</v>
+        <v>0.2280262900322889</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>191093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177730</v>
+        <v>177912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>202107</v>
+        <v>202707</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7651835238114958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7116748800129886</v>
+        <v>0.7124040558526158</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.809286826434122</v>
+        <v>0.8116881086222846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>372</v>
@@ -8512,19 +8512,19 @@
         <v>211044</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201304</v>
+        <v>201393</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>220384</v>
+        <v>219819</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8389401289478183</v>
+        <v>0.8389401289478184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.80022336280616</v>
+        <v>0.8005767978653903</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8760685997549176</v>
+        <v>0.8738237997195847</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>645</v>
@@ -8533,19 +8533,19 @@
         <v>402136</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>385145</v>
+        <v>386986</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>416438</v>
+        <v>418080</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8021960684912648</v>
+        <v>0.8021960684912649</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.768302380056192</v>
+        <v>0.7719737099677113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8307256633159108</v>
+        <v>0.8340023802740401</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>154097</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129896</v>
+        <v>127339</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185616</v>
+        <v>181857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.220870720596437</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1861826098694314</v>
+        <v>0.1825177151216592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2660479355742803</v>
+        <v>0.2606589360699356</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>193</v>
@@ -8658,19 +8658,19 @@
         <v>154807</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135156</v>
+        <v>135611</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>176086</v>
+        <v>177323</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2089955513195952</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1824661063723306</v>
+        <v>0.1830801269619315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2377233107814751</v>
+        <v>0.2393934591078522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>313</v>
@@ -8679,19 +8679,19 @@
         <v>308904</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>278561</v>
+        <v>273516</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>344960</v>
+        <v>343122</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2147554761094854</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1936608168077396</v>
+        <v>0.1901535062052564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2398224124810991</v>
+        <v>0.2385442128021449</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>543583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>512064</v>
+        <v>515823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>567784</v>
+        <v>570341</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7791292794035631</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7339520644257197</v>
+        <v>0.7393410639300645</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8138173901305689</v>
+        <v>0.8174822848783407</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>729</v>
@@ -8729,19 +8729,19 @@
         <v>585911</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>564632</v>
+        <v>563395</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>605562</v>
+        <v>605107</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7910044486804049</v>
+        <v>0.791004448680405</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7622766892185249</v>
+        <v>0.7606065408921477</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8175338936276695</v>
+        <v>0.8169198730380685</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1190</v>
@@ -8750,19 +8750,19 @@
         <v>1129494</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1093438</v>
+        <v>1095276</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1159837</v>
+        <v>1164882</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7852445238905146</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7601775875189011</v>
+        <v>0.7614557871978552</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8063391831922604</v>
+        <v>0.8098464937947437</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>78836</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>62686</v>
+        <v>62561</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97396</v>
+        <v>97843</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1024048684928664</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08142618588198178</v>
+        <v>0.08126432044682459</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1265123657510875</v>
+        <v>0.1270940602470278</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>129</v>
@@ -8875,19 +8875,19 @@
         <v>97942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>81835</v>
+        <v>84724</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114513</v>
+        <v>117628</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1208701060803074</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1009931748831103</v>
+        <v>0.1045576520133864</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1413211137200451</v>
+        <v>0.1451647660345365</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>202</v>
@@ -8896,19 +8896,19 @@
         <v>176778</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>153780</v>
+        <v>154451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>199571</v>
+        <v>206108</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1118738653520569</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09731917165179535</v>
+        <v>0.09774412625962901</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1262979627593111</v>
+        <v>0.130435360382654</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>691015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>672455</v>
+        <v>672008</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>707165</v>
+        <v>707290</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8975951315071337</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8734876342489126</v>
+        <v>0.8729059397529723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9185738141180187</v>
+        <v>0.9187356795531756</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>910</v>
@@ -8946,19 +8946,19 @@
         <v>712365</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>695794</v>
+        <v>692679</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>728472</v>
+        <v>725583</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8791298939196927</v>
+        <v>0.8791298939196925</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8586788862799549</v>
+        <v>0.8548352339654635</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8990068251168899</v>
+        <v>0.8954423479866136</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1580</v>
@@ -8967,19 +8967,19 @@
         <v>1403380</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1380587</v>
+        <v>1374050</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1426378</v>
+        <v>1425707</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8881261346479431</v>
+        <v>0.888126134647943</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8737020372406886</v>
+        <v>0.8695646396173461</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9026808283482043</v>
+        <v>0.9022558737403711</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>649304</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>601502</v>
+        <v>598029</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>706796</v>
+        <v>706061</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1911696523671299</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1770956407395711</v>
+        <v>0.1760733305823292</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2080966291172566</v>
+        <v>0.2078803591585509</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>941</v>
@@ -9092,19 +9092,19 @@
         <v>664087</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>622876</v>
+        <v>627216</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>704013</v>
+        <v>709353</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1832074983763039</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1718381972868926</v>
+        <v>0.1730357289129592</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1942222947800154</v>
+        <v>0.1956955172622182</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1510</v>
@@ -9113,19 +9113,19 @@
         <v>1313391</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1254155</v>
+        <v>1246986</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1392551</v>
+        <v>1377317</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1870591279483034</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1786225381199262</v>
+        <v>0.1776015480080458</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1983335651649146</v>
+        <v>0.1961638509567183</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2747175</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2689683</v>
+        <v>2690418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2794977</v>
+        <v>2798450</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8088303476328701</v>
+        <v>0.8088303476328702</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7919033708827434</v>
+        <v>0.7921196408414497</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8229043592604288</v>
+        <v>0.823926669417671</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4275</v>
@@ -9163,19 +9163,19 @@
         <v>2960693</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2920767</v>
+        <v>2915427</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3001904</v>
+        <v>2997564</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8167925016236961</v>
+        <v>0.816792501623696</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8057777052199844</v>
+        <v>0.8043044827377815</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8281618027131076</v>
+        <v>0.8269642710870403</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6958</v>
@@ -9184,19 +9184,19 @@
         <v>5707868</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5628708</v>
+        <v>5643942</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5767104</v>
+        <v>5774273</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8129408720516967</v>
+        <v>0.8129408720516966</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8016664348350853</v>
+        <v>0.8038361490432818</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8213774618800735</v>
+        <v>0.8223984519919543</v>
       </c>
     </row>
     <row r="30">
